--- a/back_end3.0/financial_products_viewer/input/客户G（理财客户）_sell.xlsx
+++ b/back_end3.0/financial_products_viewer/input/客户G（理财客户）_sell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\back_end3.0\financial_products_viewer\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhinuo\financial_products_viewer1008\financial_products_viewer\financial_products_viewer\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA72AE4-4FA9-4A24-BDE7-0D16612C0895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D326F-6DB6-43AF-AF96-6AB1286CB6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="487" yWindow="4012" windowWidth="21646" windowHeight="10388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,11 +55,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>200619</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>190319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,32 +424,32 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.9296875" style="3"/>
+    <col min="4" max="16384" width="8.9140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,13 +457,13 @@
         <v>1400000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -469,7 +477,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -477,13 +485,13 @@
         <v>1200000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -497,8 +505,19 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.05</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
